--- a/Data/cleaned/S15_scope_2022-11-23 _xlytA_piaB.xlsx
+++ b/Data/cleaned/S15_scope_2022-11-23 _xlytA_piaB.xlsx
@@ -9,35 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14010" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="S15_scope_2022-11-23 _xlytA_pia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateCount="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateCount="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>S15_scope_2022-11-23 _xlytA_piaB.pcrd</t>
-  </si>
-  <si>
     <t>Created By User</t>
   </si>
   <si>
@@ -212,15 +198,27 @@
     <t>G09</t>
   </si>
   <si>
+    <t>100.4</t>
+  </si>
+  <si>
     <t>G10</t>
   </si>
   <si>
+    <t>101.4</t>
+  </si>
+  <si>
     <t>G11</t>
   </si>
   <si>
+    <t>100.5</t>
+  </si>
+  <si>
     <t>G12</t>
   </si>
   <si>
+    <t>101.5</t>
+  </si>
+  <si>
     <t>H05</t>
   </si>
   <si>
@@ -246,6 +244,9 @@
   </si>
   <si>
     <t>H12</t>
+  </si>
+  <si>
+    <t>5_scope_2022-11-23 _xlytA_piaB.pcrd</t>
   </si>
 </sst>
 </file>
@@ -256,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="###0;\-###0"/>
     <numFmt numFmtId="165" formatCode="###0.00;\-###0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
@@ -283,9 +284,16 @@
       <name val="Microsoft Sans Serif"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <name val="Microsoft Sans Serif"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <name val="Microsoft Sans Serif"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +319,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -326,22 +334,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,726 +663,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9">
-        <v>105</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="9">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="7">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="6">
-        <v>100.4</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="E22" s="7">
+        <v>101.4</v>
+      </c>
+      <c r="F22" s="8">
+        <v>35.4283348418126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="6">
-        <v>101.4</v>
-      </c>
-      <c r="F22" s="7">
-        <v>35.4283348418126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="E23" s="7">
+        <v>100.5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>38.375652629920801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="6">
-        <v>100.5</v>
-      </c>
-      <c r="F23" s="7">
-        <v>38.375652629920801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+      <c r="E24" s="7">
+        <v>101.5</v>
+      </c>
+      <c r="F24" s="8">
+        <v>35.123663392272199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="8">
+        <v>19.915390185006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="8">
+        <v>23.3527366404888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="8">
+        <v>26.542881620530199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="8">
+        <v>29.840106688453901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="8">
+        <v>33.024068517070901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="6">
-        <v>101.5</v>
-      </c>
-      <c r="F24" s="7">
-        <v>35.123663392272199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="7">
-        <v>19.915390185006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+      <c r="F40" s="8">
+        <v>21.378763245588701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="7">
-        <v>23.3527366404888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+      <c r="F41" s="8">
+        <v>25.0768745371657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="7">
-        <v>26.542881620530199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+      <c r="F42" s="8">
+        <v>28.319953628338499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="7">
-        <v>29.840106688453901</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+      <c r="F43" s="8">
+        <v>31.886371246047499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="7">
-        <v>33.024068517070901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="6">
-        <v>92.6</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="6">
-        <v>93.6</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="6">
-        <v>94.6</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="6">
-        <v>95.6</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="7">
-        <v>21.378763245588701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="7">
-        <v>25.0768745371657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="7">
-        <v>28.319953628338499</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="7">
-        <v>31.886371246047499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>35.280653662622797</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="45" pageOrder="overThenDown" orientation="portrait" blackAndWhite="1" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="0" scale="0" pageOrder="overThenDown" orientation="portrait" blackAndWhite="1" useFirstPageNumber="1"/>
 </worksheet>
 </file>